--- a/MainTop/27.02.2025/Книга1_sorted.xlsx
+++ b/MainTop/27.02.2025/Книга1_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\27.02.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D11AD8-A4F6-4FE4-B13E-69EDF524942D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6B6DE-D715-4E19-A673-AC344CD4EC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="200">
   <si>
     <t>Артикул</t>
   </si>
@@ -548,6 +548,78 @@
   </si>
   <si>
     <t>г6</t>
+  </si>
+  <si>
+    <t>Термонаклейка Животные с радугой</t>
+  </si>
+  <si>
+    <t>Термонаклейка Балерина в сиреневом</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный котенок в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Весёлый енот выглядывает</t>
+  </si>
+  <si>
+    <t>Термонаклейка Фея в ночном лесу</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка с бабочкой</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка в розовом платье</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка с маком в руках</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка Ангел с хвостами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Разноцветные сердечки</t>
+  </si>
+  <si>
+    <t>Термонаклейка львенок с милой улыбкой</t>
+  </si>
+  <si>
+    <t>Термонаклейка львенок выглядывает игриво</t>
+  </si>
+  <si>
+    <t>Термонаклейка арбуз с сердцем и надписью</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лисёнок с розовыми щёчками</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лисёнок в свитере с узорами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка в зелёном с подсолнухом</t>
+  </si>
+  <si>
+    <t>Термонаклейка Радужный мишка с улыбкой</t>
+  </si>
+  <si>
+    <t>Термонаклейка Радужный котенок счастливый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Улыбающийся лисенок в снегу</t>
+  </si>
+  <si>
+    <t>Термонаклейка Львенок счастливый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Тигренок счастливый радужный</t>
+  </si>
+  <si>
+    <t>Термонаклейка Ёжики в кружках с сердечками</t>
+  </si>
+  <si>
+    <t>Термонаклейка Оленёнок в шарфе</t>
+  </si>
+  <si>
+    <t>Термонаклейка Зевающий зайка в пижаме</t>
   </si>
 </sst>
 </file>
@@ -951,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O163"/>
+  <dimension ref="A1:O188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ref="D6:D12" si="0">B6-SUM(E6:J6)</f>
+        <f t="shared" ref="D6" si="0">B6-SUM(E6:J6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="10">
@@ -1277,16 +1349,16 @@
         <v>5</v>
       </c>
       <c r="M9">
-        <f>SUM(B159:B200)</f>
-        <v>54</v>
+        <f>SUM(B159:B300)</f>
+        <v>246</v>
       </c>
       <c r="N9">
         <f>SUM(M5:M9)</f>
-        <v>1408</v>
+        <v>1600</v>
       </c>
       <c r="O9">
         <f>N9/6</f>
-        <v>234.66666666666666</v>
+        <v>266.66666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -6316,7 +6388,7 @@
         <v>164</v>
       </c>
       <c r="D162" s="9">
-        <f t="shared" ref="D162:D163" si="20">B162-SUM(E162:J162)</f>
+        <f t="shared" ref="D162:D187" si="20">B162-SUM(E162:J162)</f>
         <v>0</v>
       </c>
       <c r="E162" s="10">
@@ -6369,6 +6441,776 @@
       </c>
       <c r="J163" s="10">
         <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" s="9">
+        <v>8</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E164" s="10">
+        <v>2</v>
+      </c>
+      <c r="F164" s="10">
+        <v>2</v>
+      </c>
+      <c r="G164" s="10">
+        <v>1</v>
+      </c>
+      <c r="H164" s="10">
+        <v>1</v>
+      </c>
+      <c r="I164" s="10">
+        <v>1</v>
+      </c>
+      <c r="J164" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B165" s="9">
+        <v>8</v>
+      </c>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9">
+        <f t="shared" ref="D165:D187" si="21">B165-SUM(E165:J165)</f>
+        <v>0</v>
+      </c>
+      <c r="E165" s="10">
+        <v>2</v>
+      </c>
+      <c r="F165" s="10">
+        <v>2</v>
+      </c>
+      <c r="G165" s="10">
+        <v>1</v>
+      </c>
+      <c r="H165" s="10">
+        <v>1</v>
+      </c>
+      <c r="I165" s="10">
+        <v>1</v>
+      </c>
+      <c r="J165" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B166" s="9">
+        <v>8</v>
+      </c>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E166" s="10">
+        <v>2</v>
+      </c>
+      <c r="F166" s="10">
+        <v>2</v>
+      </c>
+      <c r="G166" s="10">
+        <v>1</v>
+      </c>
+      <c r="H166" s="10">
+        <v>1</v>
+      </c>
+      <c r="I166" s="10">
+        <v>1</v>
+      </c>
+      <c r="J166" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" s="9">
+        <v>8</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E167" s="10">
+        <v>2</v>
+      </c>
+      <c r="F167" s="10">
+        <v>2</v>
+      </c>
+      <c r="G167" s="10">
+        <v>1</v>
+      </c>
+      <c r="H167" s="10">
+        <v>1</v>
+      </c>
+      <c r="I167" s="10">
+        <v>1</v>
+      </c>
+      <c r="J167" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168" s="9">
+        <v>8</v>
+      </c>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E168" s="10">
+        <v>2</v>
+      </c>
+      <c r="F168" s="10">
+        <v>2</v>
+      </c>
+      <c r="G168" s="10">
+        <v>1</v>
+      </c>
+      <c r="H168" s="10">
+        <v>1</v>
+      </c>
+      <c r="I168" s="10">
+        <v>1</v>
+      </c>
+      <c r="J168" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" s="9">
+        <v>8</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E169" s="10">
+        <v>2</v>
+      </c>
+      <c r="F169" s="10">
+        <v>2</v>
+      </c>
+      <c r="G169" s="10">
+        <v>1</v>
+      </c>
+      <c r="H169" s="10">
+        <v>1</v>
+      </c>
+      <c r="I169" s="10">
+        <v>1</v>
+      </c>
+      <c r="J169" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170" s="9">
+        <v>8</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E170" s="10">
+        <v>2</v>
+      </c>
+      <c r="F170" s="10">
+        <v>2</v>
+      </c>
+      <c r="G170" s="10">
+        <v>1</v>
+      </c>
+      <c r="H170" s="10">
+        <v>1</v>
+      </c>
+      <c r="I170" s="10">
+        <v>1</v>
+      </c>
+      <c r="J170" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B171" s="9">
+        <v>8</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E171" s="10">
+        <v>2</v>
+      </c>
+      <c r="F171" s="10">
+        <v>2</v>
+      </c>
+      <c r="G171" s="10">
+        <v>1</v>
+      </c>
+      <c r="H171" s="10">
+        <v>1</v>
+      </c>
+      <c r="I171" s="10">
+        <v>1</v>
+      </c>
+      <c r="J171" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B172" s="9">
+        <v>8</v>
+      </c>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E172" s="10">
+        <v>2</v>
+      </c>
+      <c r="F172" s="10">
+        <v>2</v>
+      </c>
+      <c r="G172" s="10">
+        <v>1</v>
+      </c>
+      <c r="H172" s="10">
+        <v>1</v>
+      </c>
+      <c r="I172" s="10">
+        <v>1</v>
+      </c>
+      <c r="J172" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B173" s="9">
+        <v>8</v>
+      </c>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E173" s="10">
+        <v>2</v>
+      </c>
+      <c r="F173" s="10">
+        <v>2</v>
+      </c>
+      <c r="G173" s="10">
+        <v>1</v>
+      </c>
+      <c r="H173" s="10">
+        <v>1</v>
+      </c>
+      <c r="I173" s="10">
+        <v>1</v>
+      </c>
+      <c r="J173" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B174" s="9">
+        <v>8</v>
+      </c>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E174" s="10">
+        <v>2</v>
+      </c>
+      <c r="F174" s="10">
+        <v>2</v>
+      </c>
+      <c r="G174" s="10">
+        <v>1</v>
+      </c>
+      <c r="H174" s="10">
+        <v>1</v>
+      </c>
+      <c r="I174" s="10">
+        <v>1</v>
+      </c>
+      <c r="J174" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B175" s="9">
+        <v>8</v>
+      </c>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E175" s="10">
+        <v>2</v>
+      </c>
+      <c r="F175" s="10">
+        <v>2</v>
+      </c>
+      <c r="G175" s="10">
+        <v>1</v>
+      </c>
+      <c r="H175" s="10">
+        <v>1</v>
+      </c>
+      <c r="I175" s="10">
+        <v>1</v>
+      </c>
+      <c r="J175" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B176" s="9">
+        <v>8</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E176" s="10">
+        <v>2</v>
+      </c>
+      <c r="F176" s="10">
+        <v>2</v>
+      </c>
+      <c r="G176" s="10">
+        <v>1</v>
+      </c>
+      <c r="H176" s="10">
+        <v>1</v>
+      </c>
+      <c r="I176" s="10">
+        <v>1</v>
+      </c>
+      <c r="J176" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177" s="9">
+        <v>8</v>
+      </c>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E177" s="10">
+        <v>2</v>
+      </c>
+      <c r="F177" s="10">
+        <v>2</v>
+      </c>
+      <c r="G177" s="10">
+        <v>1</v>
+      </c>
+      <c r="H177" s="10">
+        <v>1</v>
+      </c>
+      <c r="I177" s="10">
+        <v>1</v>
+      </c>
+      <c r="J177" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B178" s="9">
+        <v>8</v>
+      </c>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E178" s="10">
+        <v>2</v>
+      </c>
+      <c r="F178" s="10">
+        <v>2</v>
+      </c>
+      <c r="G178" s="10">
+        <v>1</v>
+      </c>
+      <c r="H178" s="10">
+        <v>1</v>
+      </c>
+      <c r="I178" s="10">
+        <v>1</v>
+      </c>
+      <c r="J178" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B179" s="9">
+        <v>8</v>
+      </c>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E179" s="10">
+        <v>2</v>
+      </c>
+      <c r="F179" s="10">
+        <v>2</v>
+      </c>
+      <c r="G179" s="10">
+        <v>1</v>
+      </c>
+      <c r="H179" s="10">
+        <v>1</v>
+      </c>
+      <c r="I179" s="10">
+        <v>1</v>
+      </c>
+      <c r="J179" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B180" s="9">
+        <v>8</v>
+      </c>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E180" s="10">
+        <v>2</v>
+      </c>
+      <c r="F180" s="10">
+        <v>2</v>
+      </c>
+      <c r="G180" s="10">
+        <v>1</v>
+      </c>
+      <c r="H180" s="10">
+        <v>1</v>
+      </c>
+      <c r="I180" s="10">
+        <v>1</v>
+      </c>
+      <c r="J180" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B181" s="9">
+        <v>8</v>
+      </c>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E181" s="10">
+        <v>2</v>
+      </c>
+      <c r="F181" s="10">
+        <v>2</v>
+      </c>
+      <c r="G181" s="10">
+        <v>1</v>
+      </c>
+      <c r="H181" s="10">
+        <v>1</v>
+      </c>
+      <c r="I181" s="10">
+        <v>1</v>
+      </c>
+      <c r="J181" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="9">
+        <v>8</v>
+      </c>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E182" s="10">
+        <v>2</v>
+      </c>
+      <c r="F182" s="10">
+        <v>2</v>
+      </c>
+      <c r="G182" s="10">
+        <v>1</v>
+      </c>
+      <c r="H182" s="10">
+        <v>1</v>
+      </c>
+      <c r="I182" s="10">
+        <v>1</v>
+      </c>
+      <c r="J182" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" s="9">
+        <v>8</v>
+      </c>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E183" s="10">
+        <v>2</v>
+      </c>
+      <c r="F183" s="10">
+        <v>2</v>
+      </c>
+      <c r="G183" s="10">
+        <v>1</v>
+      </c>
+      <c r="H183" s="10">
+        <v>1</v>
+      </c>
+      <c r="I183" s="10">
+        <v>1</v>
+      </c>
+      <c r="J183" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184" s="9">
+        <v>8</v>
+      </c>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E184" s="10">
+        <v>2</v>
+      </c>
+      <c r="F184" s="10">
+        <v>2</v>
+      </c>
+      <c r="G184" s="10">
+        <v>1</v>
+      </c>
+      <c r="H184" s="10">
+        <v>1</v>
+      </c>
+      <c r="I184" s="10">
+        <v>1</v>
+      </c>
+      <c r="J184" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185" s="9">
+        <v>8</v>
+      </c>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E185" s="10">
+        <v>2</v>
+      </c>
+      <c r="F185" s="10">
+        <v>2</v>
+      </c>
+      <c r="G185" s="10">
+        <v>1</v>
+      </c>
+      <c r="H185" s="10">
+        <v>1</v>
+      </c>
+      <c r="I185" s="10">
+        <v>1</v>
+      </c>
+      <c r="J185" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186" s="9">
+        <v>8</v>
+      </c>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E186" s="10">
+        <v>2</v>
+      </c>
+      <c r="F186" s="10">
+        <v>2</v>
+      </c>
+      <c r="G186" s="10">
+        <v>1</v>
+      </c>
+      <c r="H186" s="10">
+        <v>1</v>
+      </c>
+      <c r="I186" s="10">
+        <v>1</v>
+      </c>
+      <c r="J186" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187" s="9">
+        <v>8</v>
+      </c>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E187" s="10">
+        <v>2</v>
+      </c>
+      <c r="F187" s="10">
+        <v>2</v>
+      </c>
+      <c r="G187" s="10">
+        <v>1</v>
+      </c>
+      <c r="H187" s="10">
+        <v>1</v>
+      </c>
+      <c r="I187" s="10">
+        <v>1</v>
+      </c>
+      <c r="J187" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <f>SUM(E2:E187)</f>
+        <v>339</v>
+      </c>
+      <c r="F188">
+        <f t="shared" ref="F188:J188" si="22">SUM(F2:F187)</f>
+        <v>339</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="22"/>
+        <v>268</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="22"/>
+        <v>268</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="22"/>
+        <v>193</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="22"/>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
